--- a/data.xlsx
+++ b/data.xlsx
@@ -46,8 +46,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,44 +423,29 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>1 USD</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>1 USD</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>1 EUR</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>1 EUR</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>1 RUR</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>1 RUR</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>1 GBP</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>1 GBP</t>
         </is>
@@ -471,7 +459,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Մասնա</t>
+          <t>Մասնաճյուղեր</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -523,180 +511,855 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ԱրարատԲանկ</t>
+          <t>ՎՏԲ-Հայաստան Բանկ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>670</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ակբա բանկ </t>
+          <t>Արցախբանկ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>487.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>672</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Արցախբանկ</t>
+          <t>Էյչ-Էս-Բի-Սի Բանկ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>573.50</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>665.50</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ՎՏԲ-Հայաստան Բանկ</t>
+          <t>Յունիբանկ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>675</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Էվոկաբանկ</t>
+          <t>ՀԱՅԲԻԶՆԵՍԲԱՆԿ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>669</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ինեկոբանկ</t>
+          <t>Կոնվերս Բանկ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>486.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>667</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ԱյԴի Բանկ</t>
+          <t>Ամերիաբանկ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>649.50</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>667.50</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Բիբլոս Բանկ Արմենիա</t>
+          <t>Էվոկաբանկ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>670</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Արմսվիսբանկ</t>
+          <t>Ինեկոբանկ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>668</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Արդշինբանկ</t>
+          <t>ԱյԴի Բանկ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>671</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Էյչ-Էս-Բի-Սի Բանկ</t>
+          <t>Բիբլոս Բանկ Արմենիա</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>486.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>666</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Յունիբանկ</t>
+          <t>Արմսվիսբանկ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>669</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ՀԱՅԲԻԶՆԵՍԲԱՆԿ</t>
+          <t>Արդշինբանկ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>666</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Կոնվերս Բանկ</t>
+          <t>ԱրարատԲանկ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>675</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ամերիաբանկ</t>
+          <t xml:space="preserve">Ակբա բանկ </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>670</t>
         </is>
       </c>
     </row>
@@ -711,6 +1374,43 @@
           <t>1</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -723,8 +1423,59 @@
           <t>54</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>22 Սեպ, 20:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -511,42 +511,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ՎՏԲ-Հայաստան Բանկ</t>
+          <t>Արդշինբանկ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>478</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>485</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>557</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>571</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -556,64 +556,64 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>649</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>667</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Արցախբանկ</t>
+          <t>ԱրարատԲանկ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>478</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>487.50</t>
+          <t>485</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>559</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>571</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>646</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -625,104 +625,104 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Էյչ-Էս-Բի-Սի Բանկ</t>
+          <t>Արցախբանկ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>480</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>486.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>560</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>573.50</t>
+          <t>572</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>651</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>665.50</t>
+          <t>668</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Յունիբանկ</t>
+          <t>ՎՏԲ-Հայաստան Բանկ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>478</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>485</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>554</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>569</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -732,24 +732,24 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>669</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ՀԱՅԲԻԶՆԵՍԲԱՆԿ</t>
+          <t>Էվոկաբանկ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -759,54 +759,54 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>485</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>561</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>570</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>652</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>666</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Կոնվերս Բանկ</t>
+          <t>Ինեկոբանկ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -816,59 +816,59 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>486.50</t>
+          <t>486</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>558.50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>571.50</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>650</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>668</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ամերիաբանկ</t>
+          <t>ԱյԴի Բանկ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>478</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -878,106 +878,106 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>557</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>570</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>6.53</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>649.50</t>
+          <t>651</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>667.50</t>
+          <t>671</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Էվոկաբանկ</t>
+          <t>Բիբլոս Բանկ Արմենիա</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>479</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>486.50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>558</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>572</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>651</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>666</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ինեկոբանկ</t>
+          <t>Արմսվիսբանկ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>486</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -997,101 +997,101 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>567</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>652</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>666</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ԱյԴի Բանկ</t>
+          <t>Էյչ-Էս-Բի-Սի Բանկ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>478</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>485</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>557.50</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>572</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>650</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>666</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Բիբլոս Բանկ Արմենիա</t>
+          <t>Յունիբանկ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>486.50</t>
+          <t>486</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>557</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1116,96 +1116,96 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>647</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>671</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Արմսվիսբանկ</t>
+          <t>ՀԱՅԲԻԶՆԵՍԲԱՆԿ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>478</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>486</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>557</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>572</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>648</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>668</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Արդշինբանկ</t>
+          <t>Կոնվերս Բանկ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1220,89 +1220,89 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>559</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>571</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>651</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>665</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ԱրարատԲանկ</t>
+          <t>Ամերիաբանկ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>478</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>485</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>558.50</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>572.50</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>650</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>668</t>
         </is>
       </c>
     </row>
@@ -1319,47 +1319,47 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>478.50</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>485.50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>558</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>572</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>649</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>669</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1376,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>480</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>487</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>560</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>574</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>22 Սեպ, 20:00</t>
+          <t>23 Սեպ, 13:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1435,17 +1435,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>486</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>557</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>572</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>668</t>
         </is>
       </c>
     </row>
